--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H2">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I2">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J2">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.16187433333333</v>
+        <v>14.31952633333333</v>
       </c>
       <c r="N2">
-        <v>30.485623</v>
+        <v>42.958579</v>
       </c>
       <c r="O2">
-        <v>0.6867885401361519</v>
+        <v>0.7627709815345965</v>
       </c>
       <c r="P2">
-        <v>0.686788540136152</v>
+        <v>0.7627709815345963</v>
       </c>
       <c r="Q2">
-        <v>948.3644893674202</v>
+        <v>893.766433925104</v>
       </c>
       <c r="R2">
-        <v>8535.280404306783</v>
+        <v>8043.897905325935</v>
       </c>
       <c r="S2">
-        <v>0.15988187840626</v>
+        <v>0.1262343850112567</v>
       </c>
       <c r="T2">
-        <v>0.1598818784062601</v>
+        <v>0.1262343850112567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H3">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I3">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J3">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.777048</v>
       </c>
       <c r="O3">
-        <v>0.0400338284597913</v>
+        <v>0.0315532002861196</v>
       </c>
       <c r="P3">
-        <v>0.04003382845979131</v>
+        <v>0.0315532002861196</v>
       </c>
       <c r="Q3">
-        <v>55.28144263613688</v>
+        <v>36.97202958863556</v>
       </c>
       <c r="R3">
-        <v>497.532983725232</v>
+        <v>332.74826629772</v>
       </c>
       <c r="S3">
-        <v>0.009319729902127556</v>
+        <v>0.005221880393564314</v>
       </c>
       <c r="T3">
-        <v>0.009319729902127559</v>
+        <v>0.005221880393564313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H4">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I4">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J4">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.585696666666667</v>
+        <v>1.155932666666667</v>
       </c>
       <c r="N4">
-        <v>4.75709</v>
+        <v>3.467798</v>
       </c>
       <c r="O4">
-        <v>0.1071690382183197</v>
+        <v>0.06157409639233436</v>
       </c>
       <c r="P4">
-        <v>0.1071690382183197</v>
+        <v>0.06157409639233435</v>
       </c>
       <c r="Q4">
-        <v>147.9863222321178</v>
+        <v>72.14860277460778</v>
       </c>
       <c r="R4">
-        <v>1331.87690008906</v>
+        <v>649.3374249714701</v>
       </c>
       <c r="S4">
-        <v>0.02494856296516018</v>
+        <v>0.01019017290756442</v>
       </c>
       <c r="T4">
-        <v>0.02494856296516019</v>
+        <v>0.01019017290756442</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H5">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I5">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J5">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.456299666666667</v>
+        <v>2.705226666666667</v>
       </c>
       <c r="N5">
-        <v>7.368899</v>
+        <v>8.115680000000001</v>
       </c>
       <c r="O5">
-        <v>0.1660085931857371</v>
+        <v>0.1441017217869496</v>
       </c>
       <c r="P5">
-        <v>0.1660085931857371</v>
+        <v>0.1441017217869495</v>
       </c>
       <c r="Q5">
-        <v>229.2359955161518</v>
+        <v>168.8492157172445</v>
       </c>
       <c r="R5">
-        <v>2063.123959645366</v>
+        <v>1519.6429414552</v>
       </c>
       <c r="S5">
-        <v>0.03864619771444432</v>
+        <v>0.02384803914831903</v>
       </c>
       <c r="T5">
-        <v>0.03864619771444433</v>
+        <v>0.02384803914831903</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>494.369293</v>
       </c>
       <c r="I6">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J6">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.16187433333333</v>
+        <v>14.31952633333333</v>
       </c>
       <c r="N6">
-        <v>30.485623</v>
+        <v>42.958579</v>
       </c>
       <c r="O6">
-        <v>0.6867885401361519</v>
+        <v>0.7627709815345965</v>
       </c>
       <c r="P6">
-        <v>0.686788540136152</v>
+        <v>0.7627709815345963</v>
       </c>
       <c r="Q6">
-        <v>1674.572876574949</v>
+        <v>2359.711369834961</v>
       </c>
       <c r="R6">
-        <v>15071.15588917454</v>
+        <v>21237.40232851465</v>
       </c>
       <c r="S6">
-        <v>0.2823111367376919</v>
+        <v>0.3332825023054602</v>
       </c>
       <c r="T6">
-        <v>0.2823111367376919</v>
+        <v>0.3332825023054601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>494.369293</v>
       </c>
       <c r="I7">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J7">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.777048</v>
       </c>
       <c r="O7">
-        <v>0.0400338284597913</v>
+        <v>0.0315532002861196</v>
       </c>
       <c r="P7">
-        <v>0.04003382845979131</v>
+        <v>0.0315532002861196</v>
       </c>
       <c r="Q7">
         <v>97.61310704300712</v>
@@ -883,10 +883,10 @@
         <v>878.517963387064</v>
       </c>
       <c r="S7">
-        <v>0.01645629616680105</v>
+        <v>0.01378674569652114</v>
       </c>
       <c r="T7">
-        <v>0.01645629616680105</v>
+        <v>0.01378674569652114</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>494.369293</v>
       </c>
       <c r="I8">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J8">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.585696666666667</v>
+        <v>1.155932666666667</v>
       </c>
       <c r="N8">
-        <v>4.75709</v>
+        <v>3.467798</v>
       </c>
       <c r="O8">
-        <v>0.1071690382183197</v>
+        <v>0.06157409639233436</v>
       </c>
       <c r="P8">
-        <v>0.1071690382183197</v>
+        <v>0.06157409639233435</v>
       </c>
       <c r="Q8">
-        <v>261.3065800041522</v>
+        <v>190.4858717252016</v>
       </c>
       <c r="R8">
-        <v>2351.75922003737</v>
+        <v>1714.372845526814</v>
       </c>
       <c r="S8">
-        <v>0.0440528797939772</v>
+        <v>0.02690397172890356</v>
       </c>
       <c r="T8">
-        <v>0.0440528797939772</v>
+        <v>0.02690397172890355</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>494.369293</v>
       </c>
       <c r="I9">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J9">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.456299666666667</v>
+        <v>2.705226666666667</v>
       </c>
       <c r="N9">
-        <v>7.368899</v>
+        <v>8.115680000000001</v>
       </c>
       <c r="O9">
-        <v>0.1660085931857371</v>
+        <v>0.1441017217869496</v>
       </c>
       <c r="P9">
-        <v>0.1660085931857371</v>
+        <v>0.1441017217869495</v>
       </c>
       <c r="Q9">
-        <v>404.7730432020453</v>
+        <v>445.793664868249</v>
       </c>
       <c r="R9">
-        <v>3642.957388818407</v>
+        <v>4012.142983814241</v>
       </c>
       <c r="S9">
-        <v>0.06823945350223747</v>
+        <v>0.06296330561377222</v>
       </c>
       <c r="T9">
-        <v>0.06823945350223747</v>
+        <v>0.0629633056137722</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H10">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I10">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J10">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.16187433333333</v>
+        <v>14.31952633333333</v>
       </c>
       <c r="N10">
-        <v>30.485623</v>
+        <v>42.958579</v>
       </c>
       <c r="O10">
-        <v>0.6867885401361519</v>
+        <v>0.7627709815345965</v>
       </c>
       <c r="P10">
-        <v>0.686788540136152</v>
+        <v>0.7627709815345963</v>
       </c>
       <c r="Q10">
-        <v>476.9852588396109</v>
+        <v>823.1756558866883</v>
       </c>
       <c r="R10">
-        <v>4292.867329556498</v>
+        <v>7408.580902980196</v>
       </c>
       <c r="S10">
-        <v>0.08041349081537319</v>
+        <v>0.1162642372020448</v>
       </c>
       <c r="T10">
-        <v>0.08041349081537322</v>
+        <v>0.1162642372020447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H11">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I11">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J11">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.777048</v>
       </c>
       <c r="O11">
-        <v>0.0400338284597913</v>
+        <v>0.0315532002861196</v>
       </c>
       <c r="P11">
-        <v>0.04003382845979131</v>
+        <v>0.0315532002861196</v>
       </c>
       <c r="Q11">
-        <v>27.80411278622755</v>
+        <v>34.05193297809333</v>
       </c>
       <c r="R11">
-        <v>250.237015076048</v>
+        <v>306.46739680284</v>
       </c>
       <c r="S11">
-        <v>0.004687410620621967</v>
+        <v>0.004809449823547917</v>
       </c>
       <c r="T11">
-        <v>0.004687410620621967</v>
+        <v>0.004809449823547916</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H12">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I12">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J12">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.585696666666667</v>
+        <v>1.155932666666667</v>
       </c>
       <c r="N12">
-        <v>4.75709</v>
+        <v>3.467798</v>
       </c>
       <c r="O12">
-        <v>0.1071690382183197</v>
+        <v>0.06157409639233436</v>
       </c>
       <c r="P12">
-        <v>0.1071690382183197</v>
+        <v>0.06157409639233435</v>
       </c>
       <c r="Q12">
-        <v>74.4305538703711</v>
+        <v>66.45021692017667</v>
       </c>
       <c r="R12">
-        <v>669.8749848333399</v>
+        <v>598.05195228159</v>
       </c>
       <c r="S12">
-        <v>0.01254802019374522</v>
+        <v>0.009385340451805365</v>
       </c>
       <c r="T12">
-        <v>0.01254802019374522</v>
+        <v>0.009385340451805363</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H13">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I13">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J13">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.456299666666667</v>
+        <v>2.705226666666667</v>
       </c>
       <c r="N13">
-        <v>7.368899</v>
+        <v>8.115680000000001</v>
       </c>
       <c r="O13">
-        <v>0.1660085931857371</v>
+        <v>0.1441017217869496</v>
       </c>
       <c r="P13">
-        <v>0.1660085931857371</v>
+        <v>0.1441017217869495</v>
       </c>
       <c r="Q13">
-        <v>115.2955344516971</v>
+        <v>155.5132958882667</v>
       </c>
       <c r="R13">
-        <v>1037.659810065274</v>
+        <v>1399.6196629944</v>
       </c>
       <c r="S13">
-        <v>0.01943732270309558</v>
+        <v>0.02196449152975686</v>
       </c>
       <c r="T13">
-        <v>0.01943732270309558</v>
+        <v>0.02196449152975685</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H14">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I14">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J14">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.16187433333333</v>
+        <v>14.31952633333333</v>
       </c>
       <c r="N14">
-        <v>30.485623</v>
+        <v>42.958579</v>
       </c>
       <c r="O14">
-        <v>0.6867885401361519</v>
+        <v>0.7627709815345965</v>
       </c>
       <c r="P14">
-        <v>0.686788540136152</v>
+        <v>0.7627709815345963</v>
       </c>
       <c r="Q14">
-        <v>973.8715391482048</v>
+        <v>1323.928164820582</v>
       </c>
       <c r="R14">
-        <v>8764.843852333843</v>
+        <v>11915.35348338523</v>
       </c>
       <c r="S14">
-        <v>0.1641820341768267</v>
+        <v>0.1869898570158348</v>
       </c>
       <c r="T14">
-        <v>0.1641820341768267</v>
+        <v>0.1869898570158348</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H15">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I15">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J15">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.777048</v>
       </c>
       <c r="O15">
-        <v>0.0400338284597913</v>
+        <v>0.0315532002861196</v>
       </c>
       <c r="P15">
-        <v>0.04003382845979131</v>
+        <v>0.0315532002861196</v>
       </c>
       <c r="Q15">
-        <v>56.76828290175467</v>
+        <v>54.76633427372177</v>
       </c>
       <c r="R15">
-        <v>510.914546115792</v>
+        <v>492.897008463496</v>
       </c>
       <c r="S15">
-        <v>0.00957039177024073</v>
+        <v>0.007735124372486232</v>
       </c>
       <c r="T15">
-        <v>0.009570391770240732</v>
+        <v>0.007735124372486231</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H16">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I16">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J16">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.585696666666667</v>
+        <v>1.155932666666667</v>
       </c>
       <c r="N16">
-        <v>4.75709</v>
+        <v>3.467798</v>
       </c>
       <c r="O16">
-        <v>0.1071690382183197</v>
+        <v>0.06157409639233436</v>
       </c>
       <c r="P16">
-        <v>0.1071690382183197</v>
+        <v>0.06157409639233435</v>
       </c>
       <c r="Q16">
-        <v>151.9665371498733</v>
+        <v>106.8730751570829</v>
       </c>
       <c r="R16">
-        <v>1367.69883434886</v>
+        <v>961.857676413746</v>
       </c>
       <c r="S16">
-        <v>0.0256195752654371</v>
+        <v>0.01509461130406101</v>
       </c>
       <c r="T16">
-        <v>0.02561957526543711</v>
+        <v>0.01509461130406101</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H17">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I17">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J17">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.456299666666667</v>
+        <v>2.705226666666667</v>
       </c>
       <c r="N17">
-        <v>7.368899</v>
+        <v>8.115680000000001</v>
       </c>
       <c r="O17">
-        <v>0.1660085931857371</v>
+        <v>0.1441017217869496</v>
       </c>
       <c r="P17">
-        <v>0.1660085931857371</v>
+        <v>0.1441017217869495</v>
       </c>
       <c r="Q17">
-        <v>235.4014878081273</v>
+        <v>250.1148217372622</v>
       </c>
       <c r="R17">
-        <v>2118.613390273146</v>
+        <v>2251.03339563536</v>
       </c>
       <c r="S17">
-        <v>0.0396856192659597</v>
+        <v>0.03532588549510147</v>
       </c>
       <c r="T17">
-        <v>0.0396856192659597</v>
+        <v>0.03532588549510146</v>
       </c>
     </row>
   </sheetData>
